--- a/output/ajuste2018.xlsx
+++ b/output/ajuste2018.xlsx
@@ -434,22 +434,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>-1230.30489491064</v>
+        <v>-1234.747413556725</v>
       </c>
       <c r="C3">
-        <v>600.7752010304804</v>
+        <v>2085.918756089357</v>
       </c>
       <c r="D3">
-        <v>232.6453407173005</v>
+        <v>255.3567153003003</v>
       </c>
       <c r="E3">
         <v>31</v>
       </c>
       <c r="F3">
-        <v>2522.60978982128</v>
+        <v>2531.494827113449</v>
       </c>
       <c r="G3">
-        <v>2632.388959721191</v>
+        <v>2641.273997013361</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -462,22 +462,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>-1168.89686903179</v>
+        <v>-1173.327028153149</v>
       </c>
       <c r="C4">
-        <v>467.7841449959788</v>
+        <v>534.3381372048618</v>
       </c>
       <c r="D4">
-        <v>206.8535620404433</v>
+        <v>210.2897315333678</v>
       </c>
       <c r="E4">
         <v>47</v>
       </c>
       <c r="F4">
-        <v>2431.79373806358</v>
+        <v>2440.654056306297</v>
       </c>
       <c r="G4">
-        <v>2598.233124686026</v>
+        <v>2607.093442928743</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -490,25 +490,25 @@
         </is>
       </c>
       <c r="B5">
-        <v>-1140.876482816159</v>
+        <v>-1140.876482816072</v>
       </c>
       <c r="C5">
-        <v>324.3867640045207</v>
+        <v>324.3867877354729</v>
       </c>
       <c r="D5">
-        <v>183.9783200926496</v>
+        <v>183.9783236976492</v>
       </c>
       <c r="E5">
         <v>63</v>
       </c>
       <c r="F5">
-        <v>2407.752965632317</v>
+        <v>2407.752965632144</v>
       </c>
       <c r="G5">
-        <v>2630.852568977298</v>
+        <v>2630.852568977125</v>
       </c>
       <c r="H5">
-        <v>7.474535546059258e-009</v>
+        <v>7.474498020521025e-009</v>
       </c>
     </row>
     <row r="6">
@@ -518,25 +518,25 @@
         </is>
       </c>
       <c r="B6">
-        <v>-1117.807145878239</v>
+        <v>-1117.80714587823</v>
       </c>
       <c r="C6">
-        <v>269.2398409281505</v>
+        <v>269.2398492068251</v>
       </c>
       <c r="D6">
-        <v>170.4264821685302</v>
+        <v>170.426483028431</v>
       </c>
       <c r="E6">
         <v>79</v>
       </c>
       <c r="F6">
-        <v>2393.614291756477</v>
+        <v>2393.61429175646</v>
       </c>
       <c r="G6">
-        <v>2673.374111823993</v>
+        <v>2673.374111823976</v>
       </c>
       <c r="H6">
-        <v>7.59488040424916e-006</v>
+        <v>7.594868898008755e-006</v>
       </c>
     </row>
   </sheetData>

--- a/output/ajuste2018.xlsx
+++ b/output/ajuste2018.xlsx
@@ -434,22 +434,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>-1234.747413556725</v>
+        <v>-1230.304894910673</v>
       </c>
       <c r="C3">
-        <v>2085.918756089357</v>
+        <v>600.7744226703647</v>
       </c>
       <c r="D3">
-        <v>255.3567153003003</v>
+        <v>232.6453480850286</v>
       </c>
       <c r="E3">
         <v>31</v>
       </c>
       <c r="F3">
-        <v>2531.494827113449</v>
+        <v>2522.609789821346</v>
       </c>
       <c r="G3">
-        <v>2641.273997013361</v>
+        <v>2632.388959721257</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -462,22 +462,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>-1173.327028153149</v>
+        <v>-1173.719840929962</v>
       </c>
       <c r="C4">
-        <v>534.3381372048618</v>
+        <v>495.0551254537604</v>
       </c>
       <c r="D4">
-        <v>210.2897315333678</v>
+        <v>206.1269902407321</v>
       </c>
       <c r="E4">
         <v>47</v>
       </c>
       <c r="F4">
-        <v>2440.654056306297</v>
+        <v>2441.439681859925</v>
       </c>
       <c r="G4">
-        <v>2607.093442928743</v>
+        <v>2607.879068482371</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -490,25 +490,25 @@
         </is>
       </c>
       <c r="B5">
-        <v>-1140.876482816072</v>
+        <v>-1140.876482816092</v>
       </c>
       <c r="C5">
-        <v>324.3867877354729</v>
+        <v>324.3867820140354</v>
       </c>
       <c r="D5">
-        <v>183.9783236976492</v>
+        <v>183.9783228285073</v>
       </c>
       <c r="E5">
         <v>63</v>
       </c>
       <c r="F5">
-        <v>2407.752965632144</v>
+        <v>2407.752965632185</v>
       </c>
       <c r="G5">
-        <v>2630.852568977125</v>
+        <v>2630.852568977166</v>
       </c>
       <c r="H5">
-        <v>7.474498020521025e-009</v>
+        <v>7.474507124349827e-009</v>
       </c>
     </row>
     <row r="6">
@@ -518,25 +518,25 @@
         </is>
       </c>
       <c r="B6">
-        <v>-1117.80714587823</v>
+        <v>-1117.807145878182</v>
       </c>
       <c r="C6">
-        <v>269.2398492068251</v>
+        <v>269.2403245392601</v>
       </c>
       <c r="D6">
-        <v>170.426483028431</v>
+        <v>170.4265385311804</v>
       </c>
       <c r="E6">
         <v>79</v>
       </c>
       <c r="F6">
-        <v>2393.61429175646</v>
+        <v>2393.614291756364</v>
       </c>
       <c r="G6">
-        <v>2673.374111823976</v>
+        <v>2673.37411182388</v>
       </c>
       <c r="H6">
-        <v>7.594868898008755e-006</v>
+        <v>7.59420827900481e-006</v>
       </c>
     </row>
   </sheetData>
